--- a/testdata/loginData.xlsx
+++ b/testdata/loginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -24,32 +24,28 @@
     <t>password</t>
   </si>
   <si>
+    <t>myproject@123</t>
+  </si>
+  <si>
+    <t>myproject@gmail.com</t>
+  </si>
+  <si>
+    <t>myproject@1</t>
+  </si>
+  <si>
+    <t>mypro</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
-    <t>myproject@123</t>
-  </si>
-  <si>
-    <t>myproject@gmail.com</t>
-  </si>
-  <si>
-    <t>myproject@1</t>
-  </si>
-  <si>
-    <t>mypro</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -388,17 +384,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -409,39 +405,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testdata/loginData.xlsx
+++ b/testdata/loginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -40,12 +40,19 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -392,9 +399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -415,6 +422,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -423,6 +433,9 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -431,6 +444,9 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -438,6 +454,9 @@
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/loginData.xlsx
+++ b/testdata/loginData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,12 +461,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5" display="myproject@123"/>
-    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4" display="myproject@123"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
